--- a/teaching/traditional_assets/database/data/united_kingdom/united_kingdom_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/united_kingdom/united_kingdom_insurance_general.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ9"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.10635</v>
+        <v>0.02215</v>
       </c>
       <c r="E2">
-        <v>0.0993</v>
+        <v>0.0901</v>
       </c>
       <c r="F2">
-        <v>0.101</v>
+        <v>0.0784</v>
       </c>
       <c r="G2">
-        <v>0.1052903910968855</v>
+        <v>0.1803409403313488</v>
       </c>
       <c r="H2">
-        <v>0.1052532210364842</v>
+        <v>0.1803409403313488</v>
       </c>
       <c r="I2">
-        <v>0.1194483940218426</v>
+        <v>0.1345759163406114</v>
       </c>
       <c r="J2">
-        <v>0.1052961325309269</v>
+        <v>0.1218278209718841</v>
       </c>
       <c r="K2">
-        <v>5129.2</v>
+        <v>5186.7</v>
       </c>
       <c r="L2">
-        <v>0.07565582294071227</v>
+        <v>0.0772011986748668</v>
       </c>
       <c r="M2">
-        <v>4942.326</v>
+        <v>2778.083</v>
       </c>
       <c r="N2">
-        <v>0.05059483397553755</v>
+        <v>0.02988545327605997</v>
       </c>
       <c r="O2">
-        <v>0.963566638072214</v>
+        <v>0.5356166734146953</v>
       </c>
       <c r="P2">
-        <v>2349.614</v>
+        <v>1277.4</v>
       </c>
       <c r="Q2">
-        <v>0.02405311390559802</v>
+        <v>0.01374173414359435</v>
       </c>
       <c r="R2">
-        <v>0.4580858613428995</v>
+        <v>0.2462837642431604</v>
       </c>
       <c r="S2">
-        <v>2592.712</v>
+        <v>1500.683</v>
       </c>
       <c r="T2">
-        <v>0.5245934808832926</v>
+        <v>0.5401865243047094</v>
       </c>
       <c r="U2">
-        <v>21709.36</v>
+        <v>26159.23</v>
       </c>
       <c r="V2">
-        <v>0.2222397844486939</v>
+        <v>0.2814100391898681</v>
       </c>
       <c r="W2">
-        <v>0.08737187779878595</v>
+        <v>0.1386062194239086</v>
       </c>
       <c r="X2">
-        <v>0.05947900598359883</v>
+        <v>0.05055290854392052</v>
       </c>
       <c r="Y2">
-        <v>0.02789287181518713</v>
+        <v>0.08805331087998808</v>
       </c>
       <c r="Z2">
-        <v>-4.00709251172011</v>
+        <v>3.119239346427897</v>
       </c>
       <c r="AA2">
-        <v>0.04528519394587208</v>
+        <v>0.2046184023021259</v>
       </c>
       <c r="AB2">
-        <v>0.05063390608373022</v>
+        <v>0.04586337810934749</v>
       </c>
       <c r="AC2">
-        <v>-0.006922575533486713</v>
+        <v>0.1478059159902088</v>
       </c>
       <c r="AD2">
-        <v>28391.81</v>
+        <v>27136.18</v>
       </c>
       <c r="AE2">
-        <v>3420.834773490759</v>
+        <v>2276.695335741311</v>
       </c>
       <c r="AF2">
-        <v>31812.64477349076</v>
+        <v>29412.87533574131</v>
       </c>
       <c r="AG2">
-        <v>10103.28477349076</v>
+        <v>3253.645335741312</v>
       </c>
       <c r="AH2">
-        <v>0.2456630946994638</v>
+        <v>0.240359050817918</v>
       </c>
       <c r="AI2">
-        <v>0.4495835885718824</v>
+        <v>0.426500556891294</v>
       </c>
       <c r="AJ2">
-        <v>0.09373320147586618</v>
+        <v>0.03381768880153704</v>
       </c>
       <c r="AK2">
-        <v>0.2059755867839314</v>
+        <v>0.07601256634088562</v>
       </c>
       <c r="AL2">
-        <v>1193.332</v>
+        <v>1195</v>
       </c>
       <c r="AM2">
-        <v>1186.439</v>
+        <v>1185.451</v>
       </c>
       <c r="AN2">
-        <v>2.797520327286056</v>
+        <v>2.493664337142358</v>
       </c>
       <c r="AO2">
-        <v>6.80408302132181</v>
+        <v>7.612312133891213</v>
       </c>
       <c r="AP2">
-        <v>0.9955034401188267</v>
+        <v>0.2989919487358827</v>
       </c>
       <c r="AQ2">
-        <v>6.843613535967714</v>
+        <v>7.673630542299934</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aon plc (NYSE:AON)</t>
+          <t>Aon Plc (NYSE:AON)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -728,124 +728,124 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0179</v>
+        <v>-0.012</v>
       </c>
       <c r="E3">
-        <v>0.0306</v>
+        <v>0.0762</v>
       </c>
       <c r="F3">
-        <v>0.113</v>
+        <v>0.0868</v>
       </c>
       <c r="G3">
-        <v>0.2650945127546339</v>
+        <v>0.2906426360822865</v>
       </c>
       <c r="H3">
-        <v>0.2650945127546339</v>
+        <v>0.2906426360822865</v>
       </c>
       <c r="I3">
-        <v>0.2519091933584728</v>
+        <v>0.285774839623101</v>
       </c>
       <c r="J3">
-        <v>0.2008741055629962</v>
+        <v>0.233758805218019</v>
       </c>
       <c r="K3">
-        <v>1503</v>
+        <v>1819</v>
       </c>
       <c r="L3">
-        <v>0.1379152138006974</v>
+        <v>0.1655743673766612</v>
       </c>
       <c r="M3">
-        <v>2109</v>
+        <v>1826</v>
       </c>
       <c r="N3">
-        <v>0.04338051229731592</v>
+        <v>0.0382154674279065</v>
       </c>
       <c r="O3">
-        <v>1.403193612774451</v>
+        <v>1.003848268279274</v>
       </c>
       <c r="P3">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="Q3">
-        <v>0.008309970112904519</v>
+        <v>0.008580690933976816</v>
       </c>
       <c r="R3">
-        <v>0.2687957418496341</v>
+        <v>0.2253985706432106</v>
       </c>
       <c r="S3">
-        <v>1705</v>
+        <v>1416</v>
       </c>
       <c r="T3">
-        <v>0.8084400189663348</v>
+        <v>0.7754654983570646</v>
       </c>
       <c r="U3">
-        <v>558.6</v>
+        <v>778.2</v>
       </c>
       <c r="V3">
-        <v>0.01148997352739719</v>
+        <v>0.01628656996297746</v>
       </c>
       <c r="W3">
-        <v>0.3526513374002815</v>
+        <v>0.5209049255441008</v>
       </c>
       <c r="X3">
-        <v>0.05467442904558373</v>
+        <v>0.04967218363405891</v>
       </c>
       <c r="Y3">
-        <v>0.2979769083546978</v>
+        <v>0.4712327419100419</v>
       </c>
       <c r="Z3">
-        <v>3.327158079601685</v>
+        <v>3.261113434847714</v>
       </c>
       <c r="AA3">
-        <v>0.6683399033066845</v>
+        <v>0.7623139802104315</v>
       </c>
       <c r="AB3">
-        <v>0.05030500268013881</v>
+        <v>0.04541976878664798</v>
       </c>
       <c r="AC3">
-        <v>0.6180349006265456</v>
+        <v>0.7168942114237835</v>
       </c>
       <c r="AD3">
-        <v>8490</v>
+        <v>7795</v>
       </c>
       <c r="AE3">
-        <v>1373.468053896816</v>
+        <v>1132.388059503064</v>
       </c>
       <c r="AF3">
-        <v>9863.468053896817</v>
+        <v>8927.388059503064</v>
       </c>
       <c r="AG3">
-        <v>9304.868053896816</v>
+        <v>8149.188059503064</v>
       </c>
       <c r="AH3">
-        <v>0.1686646233754951</v>
+        <v>0.1574242923838916</v>
       </c>
       <c r="AI3">
-        <v>0.7347380927346077</v>
+        <v>0.7114937401447222</v>
       </c>
       <c r="AJ3">
-        <v>0.1606471065161954</v>
+        <v>0.1457010310802397</v>
       </c>
       <c r="AK3">
-        <v>0.7232211627631729</v>
+        <v>0.6924171844567459</v>
       </c>
       <c r="AL3">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="AM3">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="AN3">
-        <v>2.408510638297872</v>
+        <v>2.037375849451124</v>
       </c>
       <c r="AO3">
-        <v>9.148148148148149</v>
+        <v>9.512048192771084</v>
       </c>
       <c r="AP3">
-        <v>2.639678880538104</v>
+        <v>2.129949832593587</v>
       </c>
       <c r="AQ3">
-        <v>9.273037542662117</v>
+        <v>9.777089783281733</v>
       </c>
     </row>
     <row r="4">
@@ -856,7 +856,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Saga plc (LSE:SAGA)</t>
+          <t>Aviva plc (LSE:AV.)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -865,118 +865,124 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0114</v>
+        <v>0.0563</v>
+      </c>
+      <c r="E4">
+        <v>0.12</v>
+      </c>
+      <c r="F4">
+        <v>0.0393</v>
       </c>
       <c r="G4">
-        <v>0.2873073803730738</v>
+        <v>0.1421879748209247</v>
       </c>
       <c r="H4">
-        <v>0.2873073803730738</v>
+        <v>0.1421879748209247</v>
       </c>
       <c r="I4">
-        <v>0.1921635625835565</v>
+        <v>0.09094855654438898</v>
       </c>
       <c r="J4">
-        <v>0.1921635625835565</v>
+        <v>0.0797189570263237</v>
       </c>
       <c r="K4">
-        <v>-250.1</v>
+        <v>2789.6</v>
       </c>
       <c r="L4">
-        <v>-0.2535482562854826</v>
+        <v>0.06055133492511396</v>
       </c>
       <c r="M4">
-        <v>54.8</v>
+        <v>508.91</v>
       </c>
       <c r="N4">
-        <v>0.0697023658102264</v>
+        <v>0.02918948992526398</v>
       </c>
       <c r="O4">
-        <v>-0.2191123550579768</v>
+        <v>0.1824311729280184</v>
       </c>
       <c r="P4">
-        <v>54.8</v>
+        <v>505.2</v>
       </c>
       <c r="Q4">
-        <v>0.0697023658102264</v>
+        <v>0.02897669589955663</v>
       </c>
       <c r="R4">
-        <v>-0.2191123550579768</v>
+        <v>0.1811012331517063</v>
       </c>
       <c r="S4">
+        <v>3.70999999999998</v>
+      </c>
+      <c r="T4">
+        <v>0.007290090585761686</v>
+      </c>
+      <c r="U4">
+        <v>23680.1</v>
+      </c>
+      <c r="V4">
+        <v>1.358216659879436</v>
+      </c>
+      <c r="W4">
+        <v>0.1242273642209516</v>
+      </c>
+      <c r="X4">
+        <v>0.06525469183051999</v>
+      </c>
+      <c r="Y4">
+        <v>0.05897267239043158</v>
+      </c>
+      <c r="Z4">
+        <v>3.648010895730394</v>
+      </c>
+      <c r="AA4">
+        <v>0.2908156238282919</v>
+      </c>
+      <c r="AB4">
+        <v>0.04667555520825696</v>
+      </c>
+      <c r="AC4">
+        <v>0.244140068620035</v>
+      </c>
+      <c r="AD4">
+        <v>12822.5</v>
+      </c>
+      <c r="AE4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>43.1</v>
-      </c>
-      <c r="V4">
-        <v>0.05482065632154668</v>
-      </c>
-      <c r="W4">
-        <v>-0.1504089487611258</v>
-      </c>
-      <c r="X4">
-        <v>0.07891811641204974</v>
-      </c>
-      <c r="Y4">
-        <v>-0.2293270651731756</v>
-      </c>
-      <c r="Z4">
-        <v>2.88548191573205</v>
-      </c>
-      <c r="AA4">
-        <v>0.5544844846974963</v>
-      </c>
-      <c r="AB4">
-        <v>0.0569157294077855</v>
-      </c>
-      <c r="AC4">
-        <v>0.4975687552897108</v>
-      </c>
-      <c r="AD4">
-        <v>872.1</v>
-      </c>
-      <c r="AE4">
-        <v>59.74930933789927</v>
-      </c>
       <c r="AF4">
-        <v>931.8493093378993</v>
+        <v>12822.5</v>
       </c>
       <c r="AG4">
-        <v>888.7493093378993</v>
+        <v>-10857.6</v>
       </c>
       <c r="AH4">
-        <v>0.5423879886759564</v>
+        <v>0.4237834300596222</v>
       </c>
       <c r="AI4">
-        <v>0.4355964053700258</v>
+        <v>0.3435503101263279</v>
       </c>
       <c r="AJ4">
-        <v>0.5306126605641686</v>
+        <v>-1.650818749904972</v>
       </c>
       <c r="AK4">
-        <v>0.4239914138647997</v>
+        <v>-0.7958133603060819</v>
       </c>
       <c r="AL4">
-        <v>16.4</v>
+        <v>581.9</v>
       </c>
       <c r="AM4">
-        <v>16.4</v>
+        <v>581.9</v>
       </c>
       <c r="AN4">
-        <v>3.726923076923077</v>
+        <v>2.814914822620302</v>
       </c>
       <c r="AO4">
-        <v>10.21951219512195</v>
+        <v>7.200549922667125</v>
       </c>
       <c r="AP4">
-        <v>3.798073971529484</v>
+        <v>-2.383561643835616</v>
       </c>
       <c r="AQ4">
-        <v>10.21951219512195</v>
+        <v>7.200549922667125</v>
       </c>
     </row>
     <row r="5">
@@ -996,124 +1002,124 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.185</v>
+        <v>0.197</v>
       </c>
       <c r="E5">
-        <v>0.199</v>
+        <v>0.176</v>
       </c>
       <c r="F5">
-        <v>0.101</v>
+        <v>0.0784</v>
       </c>
       <c r="G5">
-        <v>0.2172915950005733</v>
+        <v>0.2349644319896529</v>
       </c>
       <c r="H5">
-        <v>0.2172915950005733</v>
+        <v>0.2349644319896529</v>
       </c>
       <c r="I5">
-        <v>0.1592662022260753</v>
+        <v>0.1760226929028186</v>
       </c>
       <c r="J5">
-        <v>0.1282347980556924</v>
+        <v>0.1357283415154264</v>
       </c>
       <c r="K5">
-        <v>878</v>
+        <v>1064</v>
       </c>
       <c r="L5">
-        <v>0.10067652792111</v>
+        <v>0.1146798879068765</v>
       </c>
       <c r="M5">
-        <v>685</v>
+        <v>361</v>
       </c>
       <c r="N5">
-        <v>0.02642981437396065</v>
+        <v>0.01329268202873576</v>
       </c>
       <c r="O5">
-        <v>0.7801822323462415</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="P5">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="Q5">
-        <v>0.01246252560991137</v>
+        <v>0.0126298890189927</v>
       </c>
       <c r="R5">
-        <v>0.3678815489749431</v>
+        <v>0.3223684210526316</v>
       </c>
       <c r="S5">
-        <v>362</v>
+        <v>18</v>
       </c>
       <c r="T5">
-        <v>0.5284671532846715</v>
+        <v>0.04986149584487535</v>
       </c>
       <c r="U5">
-        <v>867</v>
+        <v>1647</v>
       </c>
       <c r="V5">
-        <v>0.03345204242660421</v>
+        <v>0.06064556039148974</v>
       </c>
       <c r="W5">
-        <v>0.08737187779878595</v>
+        <v>0.1076160614948923</v>
       </c>
       <c r="X5">
-        <v>0.05741285582993352</v>
+        <v>0.05143363345378213</v>
       </c>
       <c r="Y5">
-        <v>0.02995902196885243</v>
+        <v>0.05618242804111015</v>
       </c>
       <c r="Z5">
-        <v>1.946566079482162</v>
+        <v>1.905795890346744</v>
       </c>
       <c r="AA5">
-        <v>0.2496175081044558</v>
+        <v>0.2586705154636789</v>
       </c>
       <c r="AB5">
-        <v>0.05123443267353026</v>
+        <v>0.046306987432047</v>
       </c>
       <c r="AC5">
-        <v>0.1983830754309255</v>
+        <v>0.2123635280316319</v>
       </c>
       <c r="AD5">
-        <v>6999</v>
+        <v>5614</v>
       </c>
       <c r="AE5">
-        <v>1135.197251931985</v>
+        <v>1144.307276238248</v>
       </c>
       <c r="AF5">
-        <v>8134.197251931985</v>
+        <v>6758.307276238247</v>
       </c>
       <c r="AG5">
-        <v>7267.197251931985</v>
+        <v>5111.307276238247</v>
       </c>
       <c r="AH5">
-        <v>0.2388764770359595</v>
+        <v>0.1992654174959855</v>
       </c>
       <c r="AI5">
-        <v>0.4477901967767986</v>
+        <v>0.388893300642637</v>
       </c>
       <c r="AJ5">
-        <v>0.2189911029936637</v>
+        <v>0.1583963024599079</v>
       </c>
       <c r="AK5">
-        <v>0.4201129832254822</v>
+        <v>0.3249130658046933</v>
       </c>
       <c r="AL5">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="AM5">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="AN5">
-        <v>3.336034318398475</v>
+        <v>2.343071786310518</v>
       </c>
       <c r="AO5">
-        <v>6.278761061946903</v>
+        <v>6.788617886178862</v>
       </c>
       <c r="AP5">
-        <v>3.463869042865579</v>
+        <v>2.13326680978224</v>
       </c>
       <c r="AQ5">
-        <v>6.278761061946903</v>
+        <v>6.788617886178862</v>
       </c>
     </row>
     <row r="6">
@@ -1124,7 +1130,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Charles Taylor plc (LSE:CTR)</t>
+          <t>Saga plc (LSE:SAGA)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1133,118 +1139,118 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.198</v>
+        <v>-0.0906</v>
       </c>
       <c r="G6">
-        <v>0.05393634840871022</v>
+        <v>0.2542915705867281</v>
       </c>
       <c r="H6">
-        <v>0.04690117252931324</v>
+        <v>0.2542915705867281</v>
       </c>
       <c r="I6">
-        <v>-0.00213382921947896</v>
+        <v>0.115808352549321</v>
       </c>
       <c r="J6">
-        <v>-0.00213382921947896</v>
+        <v>0.115808352549321</v>
       </c>
       <c r="K6">
-        <v>-5.27</v>
+        <v>-546.2</v>
       </c>
       <c r="L6">
-        <v>-0.01471245114461195</v>
+        <v>-0.6997181655137075</v>
       </c>
       <c r="M6">
-        <v>11.885</v>
+        <v>19.2</v>
       </c>
       <c r="N6">
-        <v>0.03361142533936651</v>
+        <v>0.03967761934283943</v>
       </c>
       <c r="O6">
-        <v>-2.255218216318786</v>
+        <v>-0.03515195898938118</v>
       </c>
       <c r="P6">
-        <v>11.4</v>
+        <v>19.2</v>
       </c>
       <c r="Q6">
-        <v>0.03223981900452488</v>
+        <v>0.03967761934283943</v>
       </c>
       <c r="R6">
-        <v>-2.163187855787477</v>
+        <v>-0.03515195898938118</v>
       </c>
       <c r="S6">
-        <v>0.4849999999999994</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.04080774084981064</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>276</v>
+        <v>24.8</v>
       </c>
       <c r="V6">
-        <v>0.7805429864253394</v>
+        <v>0.05125025831783427</v>
       </c>
       <c r="W6">
-        <v>-0.04229534510433387</v>
+        <v>-0.4523770084479046</v>
       </c>
       <c r="X6">
-        <v>0.06741033009006947</v>
+        <v>0.09732101967812887</v>
       </c>
       <c r="Y6">
-        <v>-0.1097056751944033</v>
+        <v>-0.5496980281260334</v>
       </c>
       <c r="Z6">
-        <v>-21.22250156314283</v>
+        <v>1.300133244503664</v>
       </c>
       <c r="AA6">
-        <v>0.04528519394587208</v>
+        <v>0.1505662891405729</v>
       </c>
       <c r="AB6">
-        <v>0.05220776947935879</v>
+        <v>0.06731798519178724</v>
       </c>
       <c r="AC6">
-        <v>-0.006922575533486713</v>
+        <v>0.0832483039487857</v>
       </c>
       <c r="AD6">
-        <v>194.1</v>
+        <v>902.2</v>
       </c>
       <c r="AE6">
-        <v>60.12168813208682</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>254.2216881320868</v>
+        <v>902.2</v>
       </c>
       <c r="AG6">
-        <v>-21.7783118679132</v>
+        <v>877.4000000000001</v>
       </c>
       <c r="AH6">
-        <v>0.4182504393901151</v>
+        <v>0.6508909891061252</v>
       </c>
       <c r="AI6">
-        <v>0.7134611689363348</v>
+        <v>0.5524124418319863</v>
       </c>
       <c r="AJ6">
-        <v>-0.06563257510534996</v>
+        <v>0.6445309630500257</v>
       </c>
       <c r="AK6">
-        <v>-0.2711386223867627</v>
+        <v>0.5455110668987814</v>
       </c>
       <c r="AL6">
-        <v>5.19</v>
+        <v>35.1</v>
       </c>
       <c r="AM6">
-        <v>2.48</v>
+        <v>35.1</v>
       </c>
       <c r="AN6">
-        <v>6.187440229518649</v>
+        <v>8.040998217468806</v>
       </c>
       <c r="AO6">
-        <v>0.6339113680154143</v>
+        <v>2.575498575498576</v>
       </c>
       <c r="AP6">
-        <v>-0.6942400977976795</v>
+        <v>7.819964349376114</v>
       </c>
       <c r="AQ6">
-        <v>1.326612903225806</v>
+        <v>2.575498575498576</v>
       </c>
     </row>
     <row r="7">
@@ -1264,10 +1270,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.264</v>
+        <v>0.268</v>
       </c>
       <c r="E7">
-        <v>0.168</v>
+        <v>0.0901</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1276,91 +1282,91 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-0.01147540983606558</v>
+        <v>0.005173553719008264</v>
       </c>
       <c r="J7">
-        <v>-0.01147540983606558</v>
+        <v>0.00499784812100421</v>
       </c>
       <c r="K7">
-        <v>1.17</v>
+        <v>4.1</v>
       </c>
       <c r="L7">
-        <v>0.02397540983606557</v>
+        <v>0.06776859504132231</v>
       </c>
       <c r="M7">
-        <v>1.101</v>
+        <v>0.373</v>
       </c>
       <c r="N7">
-        <v>0.0362171052631579</v>
+        <v>0.006016129032258065</v>
       </c>
       <c r="O7">
-        <v>0.941025641025641</v>
+        <v>0.09097560975609757</v>
       </c>
       <c r="P7">
-        <v>0.674</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.02217105263157895</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>0.5760683760683761</v>
+        <v>-0</v>
       </c>
       <c r="S7">
-        <v>0.4269999999999999</v>
+        <v>0.373</v>
       </c>
       <c r="T7">
-        <v>0.3878292461398728</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>2.56</v>
+        <v>1.43</v>
       </c>
       <c r="V7">
-        <v>0.08421052631578949</v>
+        <v>0.02306451612903226</v>
       </c>
       <c r="W7">
-        <v>0.04223826714801444</v>
+        <v>0.1529850746268656</v>
       </c>
       <c r="X7">
-        <v>0.05073097511295001</v>
+        <v>0.04550157099251273</v>
       </c>
       <c r="Y7">
-        <v>-0.008492707964935571</v>
+        <v>0.1074835036343529</v>
       </c>
       <c r="Z7">
-        <v>2.194244604316547</v>
+        <v>2.367906066536203</v>
       </c>
       <c r="AA7">
-        <v>-0.02517985611510792</v>
+        <v>0.01183443488535244</v>
       </c>
       <c r="AB7">
-        <v>0.04971765108081203</v>
+        <v>0.04451607558396631</v>
       </c>
       <c r="AC7">
-        <v>-0.07489750719591995</v>
+        <v>-0.03268164069861387</v>
       </c>
       <c r="AD7">
-        <v>1.31</v>
+        <v>2.48</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>1.31</v>
+        <v>2.48</v>
       </c>
       <c r="AG7">
-        <v>-1.25</v>
+        <v>1.05</v>
       </c>
       <c r="AH7">
-        <v>0.04131188899400821</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="AI7">
-        <v>0.04660263251511917</v>
+        <v>0.06670252824098978</v>
       </c>
       <c r="AJ7">
-        <v>-0.04288164665523157</v>
+        <v>0.01665344964314036</v>
       </c>
       <c r="AK7">
-        <v>-0.04892367906066536</v>
+        <v>0.02937062937062937</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1377,7 +1383,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Curtis Banks Group plc (AIM:CBP)</t>
+          <t>Watchstone Group plc (AIM:WTG)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1385,253 +1391,119 @@
           <t>Insurance (General)</t>
         </is>
       </c>
+      <c r="D8">
+        <v>-0.308</v>
+      </c>
+      <c r="E8">
+        <v>-0.183</v>
+      </c>
       <c r="G8">
-        <v>0.06164383561643835</v>
+        <v>-0.6644664466446645</v>
       </c>
       <c r="H8">
-        <v>0.06164383561643835</v>
+        <v>-0.6644664466446645</v>
       </c>
       <c r="I8">
-        <v>0.05943780271994776</v>
+        <v>-1.32013201320132</v>
       </c>
       <c r="J8">
-        <v>0.04789732423563673</v>
+        <v>-1.32013201320132</v>
       </c>
       <c r="K8">
-        <v>11</v>
+        <v>56.2</v>
       </c>
       <c r="L8">
-        <v>0.04185692541856925</v>
+        <v>6.182618261826183</v>
       </c>
       <c r="M8">
-        <v>5.44</v>
+        <v>62.6</v>
       </c>
       <c r="N8">
-        <v>0.02094724682325761</v>
+        <v>1.664893617021276</v>
       </c>
       <c r="O8">
-        <v>0.4945454545454546</v>
+        <v>1.113879003558719</v>
       </c>
       <c r="P8">
-        <v>5.44</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.02094724682325761</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>0.4945454545454546</v>
+        <v>-0</v>
       </c>
       <c r="S8">
+        <v>62.6</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>27.7</v>
+      </c>
+      <c r="V8">
+        <v>0.7367021276595744</v>
+      </c>
+      <c r="W8">
+        <v>1.119521912350598</v>
+      </c>
+      <c r="X8">
+        <v>0.04436545039956676</v>
+      </c>
+      <c r="Y8">
+        <v>1.075156461951031</v>
+      </c>
+      <c r="Z8">
+        <v>0.1942307692307692</v>
+      </c>
+      <c r="AA8">
+        <v>-0.2564102564102564</v>
+      </c>
+      <c r="AB8">
+        <v>0.04436545039956676</v>
+      </c>
+      <c r="AC8">
+        <v>-0.3007757068098232</v>
+      </c>
+      <c r="AD8">
         <v>0</v>
       </c>
-      <c r="T8">
+      <c r="AE8">
         <v>0</v>
       </c>
-      <c r="U8">
-        <v>524.5</v>
-      </c>
-      <c r="V8">
-        <v>2.019638043896804</v>
-      </c>
-      <c r="W8">
-        <v>0.180623973727422</v>
-      </c>
-      <c r="X8">
-        <v>0.05947900598359883</v>
-      </c>
-      <c r="Y8">
-        <v>0.1211449677438232</v>
-      </c>
-      <c r="Z8">
-        <v>-0.6244486282951515</v>
-      </c>
-      <c r="AA8">
-        <v>-0.02990941841795147</v>
-      </c>
-      <c r="AB8">
-        <v>0.05001272988312089</v>
-      </c>
-      <c r="AC8">
-        <v>-0.07992214830107236</v>
-      </c>
-      <c r="AD8">
-        <v>101.1</v>
-      </c>
-      <c r="AE8">
-        <v>2.148727225988641</v>
-      </c>
       <c r="AF8">
-        <v>103.2487272259886</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>-421.2512727740113</v>
+        <v>-27.7</v>
       </c>
       <c r="AH8">
-        <v>0.2844719363396506</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.6118489242749531</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>2.607539176514478</v>
+        <v>-2.797979797979797</v>
       </c>
       <c r="AK8">
-        <v>1.184117401715126</v>
+        <v>-1.73125</v>
       </c>
       <c r="AL8">
-        <v>0.642</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>0.459</v>
+        <v>-0.549</v>
       </c>
       <c r="AN8">
-        <v>5.479674796747967</v>
-      </c>
-      <c r="AO8">
-        <v>23.20872274143302</v>
+        <v>-0</v>
       </c>
       <c r="AP8">
-        <v>-22.83204730482446</v>
+        <v>3.768707482993197</v>
       </c>
       <c r="AQ8">
-        <v>32.46187363834422</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Aviva plc (LSE:AV.)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Insurance (General)</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>0.0277</v>
-      </c>
-      <c r="E9">
-        <v>0.0261</v>
-      </c>
-      <c r="F9">
-        <v>0.04219999999999999</v>
-      </c>
-      <c r="G9">
-        <v>0.04375200177123167</v>
-      </c>
-      <c r="H9">
-        <v>0.04375200177123167</v>
-      </c>
-      <c r="I9">
-        <v>0.08082469860917051</v>
-      </c>
-      <c r="J9">
-        <v>0.06160722909301395</v>
-      </c>
-      <c r="K9">
-        <v>2991.4</v>
-      </c>
-      <c r="L9">
-        <v>0.06430172845556767</v>
-      </c>
-      <c r="M9">
-        <v>2075.1</v>
-      </c>
-      <c r="N9">
-        <v>0.09553647475886834</v>
-      </c>
-      <c r="O9">
-        <v>0.6936885739118807</v>
-      </c>
-      <c r="P9">
-        <v>1550.3</v>
-      </c>
-      <c r="Q9">
-        <v>0.07137496834787413</v>
-      </c>
-      <c r="R9">
-        <v>0.5182523233268703</v>
-      </c>
-      <c r="S9">
-        <v>524.8</v>
-      </c>
-      <c r="T9">
-        <v>0.2529034745313479</v>
-      </c>
-      <c r="U9">
-        <v>19437.6</v>
-      </c>
-      <c r="V9">
-        <v>0.8948965263230588</v>
-      </c>
-      <c r="W9">
-        <v>0.1326157406381196</v>
-      </c>
-      <c r="X9">
-        <v>0.0638976025996817</v>
-      </c>
-      <c r="Y9">
-        <v>0.06871813803843789</v>
-      </c>
-      <c r="Z9">
-        <v>-1.891021334935285</v>
-      </c>
-      <c r="AA9">
-        <v>-0.1165005846011352</v>
-      </c>
-      <c r="AB9">
-        <v>0.05063390608373022</v>
-      </c>
-      <c r="AC9">
-        <v>-0.1671344906848654</v>
-      </c>
-      <c r="AD9">
-        <v>11734.2</v>
-      </c>
-      <c r="AE9">
-        <v>790.149742965983</v>
-      </c>
-      <c r="AF9">
-        <v>12524.34974296598</v>
-      </c>
-      <c r="AG9">
-        <v>-6913.250257034015</v>
-      </c>
-      <c r="AH9">
-        <v>0.3657294406887719</v>
-      </c>
-      <c r="AI9">
-        <v>0.3433384048044003</v>
-      </c>
-      <c r="AJ9">
-        <v>-0.4668828024811343</v>
-      </c>
-      <c r="AK9">
-        <v>-0.4056940862420048</v>
-      </c>
-      <c r="AL9">
-        <v>648.1</v>
-      </c>
-      <c r="AM9">
-        <v>648.1</v>
-      </c>
-      <c r="AN9">
-        <v>2.766129982791542</v>
-      </c>
-      <c r="AO9">
-        <v>5.86066964974541</v>
-      </c>
-      <c r="AP9">
-        <v>-1.629676400140028</v>
-      </c>
-      <c r="AQ9">
-        <v>5.86066964974541</v>
+        <v>21.85792349726776</v>
       </c>
     </row>
   </sheetData>
